--- a/biology/Botanique/Hymenanthera/Hymenanthera.xlsx
+++ b/biology/Botanique/Hymenanthera/Hymenanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenanthera est un genre de plantes à fleurs de la famille des Violacées originaire d'Australie et de Nouvelle-Zélande.
 </t>
@@ -511,10 +523,12 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé par Robert Brown en 1818[1]. 
-En 1987, Philip John Garnock-Jones déplace les principales espèces dans le genre Melicytus [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé par Robert Brown en 1818. 
+En 1987, Philip John Garnock-Jones déplace les principales espèces dans le genre Melicytus .
 Il en résulte actuellement une assez large incertitude, se traduisant par une grande prudence des index dans l'attente d'études phylogénétiques plus poussées.
 Le genre fait partie de la sous-famille des Violoideae, tribu des Rinoreeae, sous-tribu des Hymenantherinae.
 </t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre sont des arbustes à feuillage persistant.
 Les fleurs sont régulières, pentamères. Elles ont des anthères surmontées d'un prolongement du connectif et doublées en dehors d'une languette qui s'attache plus ou moins bas sur le dos. Cette « languette » ou « voile » est à l'origine du nom générique.
@@ -578,7 +594,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI - The international plant names index et Tropicos - Index du jardin botanique du Missouri à la date de novembre 2011. Les espèces conservées dans le genre sont signalées en gras :
 Hymenanthera alpina (Kirk) W.R.B.Oliv. (1944) : voir Hymenanthera dentata var. alpina Kirk
